--- a/Main_DB.xlsx
+++ b/Main_DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Subject_Name</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>gopal_2_3_4</t>
-  </si>
-  <si>
-    <t>gopal_2_3_4_5</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,14 +457,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Main_DB.xlsx
+++ b/Main_DB.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\HueDoc\py\Data_M\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7952D8-5670-42BC-A86C-19B82B51D323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Subject_Name</t>
   </si>
@@ -22,29 +28,20 @@
     <t>Subject_ID</t>
   </si>
   <si>
-    <t>Suresh</t>
+    <t>kasturi</t>
   </si>
   <si>
-    <t>Mahesh</t>
+    <t>Dummy1</t>
   </si>
   <si>
-    <t>gopal</t>
-  </si>
-  <si>
-    <t>gopal_2</t>
-  </si>
-  <si>
-    <t>gopal_2_3</t>
-  </si>
-  <si>
-    <t>gopal_2_3_4</t>
+    <t>Dummy2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +104,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +190,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +242,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +435,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,52 +452,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Main_DB.xlsx
+++ b/Main_DB.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\HueDoc\py\Data_M\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7952D8-5670-42BC-A86C-19B82B51D323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Subject_Name</t>
   </si>
@@ -28,20 +22,26 @@
     <t>Subject_ID</t>
   </si>
   <si>
+    <t>Dummy1</t>
+  </si>
+  <si>
+    <t>Dummy2</t>
+  </si>
+  <si>
     <t>kasturi</t>
   </si>
   <si>
-    <t>Dummy1</t>
-  </si>
-  <si>
-    <t>Dummy2</t>
+    <t>kasturi_2</t>
+  </si>
+  <si>
+    <t>kasturi_2_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,28 +406,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Main_DB.xlsx
+++ b/Main_DB.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\HueDoc\py\Data_M\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21099D34-3B77-421B-BAFF-60D685130349}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11385" yWindow="4875" windowWidth="17370" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Subject_Name</t>
   </si>
@@ -28,20 +34,17 @@
     <t>Dummy2</t>
   </si>
   <si>
-    <t>kasturi</t>
-  </si>
-  <si>
-    <t>kasturi_2</t>
-  </si>
-  <si>
     <t>kasturi_2_2</t>
+  </si>
+  <si>
+    <t>ramesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +107,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +193,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +245,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +438,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -414,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -422,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -430,20 +482,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
